--- a/metadataschemas/FAIR4FOIS Dataset Metadata Schema.xlsx
+++ b/metadataschemas/FAIR4FOIS Dataset Metadata Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/U Twente/Events/FOIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/GitHub/fair4fois/metadataschemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F3B39-85E4-B94B-86AC-359753EA62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC0FEF-0195-4143-8F45-7E9A8CF65A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1FD0E56F-4622-7F4A-B90A-35A31D9FEDD4}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{1FD0E56F-4622-7F4A-B90A-35A31D9FEDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -746,14 +746,24 @@
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t>Either Access URL or Download URL must be provided.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="34"/>
+          <t xml:space="preserve">Either Access URL or Download URL must be provided.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The URL can also be the identifier of the dataset. In this case, please use a globally unique and persistent identifier such as DOI, W3ID, PURL, etc.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1180,7 +1190,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1239,6 +1249,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1259,12 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1615,17 +1622,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -1691,17 +1698,17 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
@@ -1761,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D01ED1E-E282-1747-9074-FEF158706663}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
@@ -1841,16 +1848,16 @@
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="23">
         <v>45043</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1866,10 +1873,10 @@
       <c r="K3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1892,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C3577-6738-3145-9D80-E5F8675FAE47}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,16 +1919,16 @@
       <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
